--- a/Data/cofactorList.xlsx
+++ b/Data/cofactorList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E224A8A-1FA9-8C41-9823-667844B9A43F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CE3D8E-B931-6A40-B194-D57A99B70DD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28820" yWindow="3100" windowWidth="27380" windowHeight="17040" xr2:uid="{6F10CA13-4694-F54D-8C31-B6BE16AEA87F}"/>
+    <workbookView xWindow="5220" yWindow="460" windowWidth="26100" windowHeight="20540" xr2:uid="{6F10CA13-4694-F54D-8C31-B6BE16AEA87F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>BA</t>
   </si>
@@ -56,30 +56,15 @@
     <t>COA</t>
   </si>
   <si>
-    <t>CU</t>
-  </si>
-  <si>
-    <t>CU1</t>
-  </si>
-  <si>
     <t>FAD</t>
   </si>
   <si>
-    <t>FE</t>
-  </si>
-  <si>
-    <t>FE2</t>
-  </si>
-  <si>
     <t>FMN</t>
   </si>
   <si>
     <t>GSH</t>
   </si>
   <si>
-    <t>HEME</t>
-  </si>
-  <si>
     <t>HG</t>
   </si>
   <si>
@@ -116,9 +101,6 @@
     <t>ZN</t>
   </si>
   <si>
-    <t>ISC</t>
-  </si>
-  <si>
     <t>cofactor type</t>
   </si>
   <si>
@@ -191,9 +173,6 @@
     <t>Zinc ion</t>
   </si>
   <si>
-    <t>s_3880[c]</t>
-  </si>
-  <si>
     <t>Copper(II) ion</t>
   </si>
   <si>
@@ -206,60 +185,9 @@
     <t>Iron(II) ion</t>
   </si>
   <si>
-    <t>Heme</t>
-  </si>
-  <si>
-    <t>Iron–sulfur cluster</t>
-  </si>
-  <si>
-    <t>s_3782[c]</t>
-  </si>
-  <si>
-    <t>s_3778[c]</t>
-  </si>
-  <si>
-    <t>s_0529[c]</t>
-  </si>
-  <si>
-    <t>s_0687[c]</t>
-  </si>
-  <si>
-    <t>s_0714[c]</t>
-  </si>
-  <si>
-    <t>s_0750[c]</t>
-  </si>
-  <si>
-    <t>s_1373[c]</t>
-  </si>
-  <si>
-    <t>s_4013[c]</t>
-  </si>
-  <si>
-    <t>s_3801[c]</t>
-  </si>
-  <si>
-    <t>s_1437[c]</t>
-  </si>
-  <si>
-    <t>s_1393[c]</t>
-  </si>
-  <si>
-    <t>s_1416[c]</t>
-  </si>
-  <si>
     <t>Sulphate ion</t>
   </si>
   <si>
-    <t>s_1467[c]</t>
-  </si>
-  <si>
-    <t>s_1475[c]</t>
-  </si>
-  <si>
-    <t>s_3822[c]</t>
-  </si>
-  <si>
     <t>synthesis reaction id</t>
   </si>
   <si>
@@ -306,6 +234,132 @@
   </si>
   <si>
     <t>FMN is not only used as cofactor but also partly converted to FAD.</t>
+  </si>
+  <si>
+    <t>CU_I</t>
+  </si>
+  <si>
+    <t>CU_II</t>
+  </si>
+  <si>
+    <t>FE_II</t>
+  </si>
+  <si>
+    <t>FE_III</t>
+  </si>
+  <si>
+    <t>HEME_A</t>
+  </si>
+  <si>
+    <t>HEME_C</t>
+  </si>
+  <si>
+    <t>HEME_B</t>
+  </si>
+  <si>
+    <t>ISC_2FE2S</t>
+  </si>
+  <si>
+    <t>ISC_4FE4S</t>
+  </si>
+  <si>
+    <t>ISC_3FE4S</t>
+  </si>
+  <si>
+    <t>Heme a</t>
+  </si>
+  <si>
+    <t>Heme c</t>
+  </si>
+  <si>
+    <t>Ferroheme b</t>
+  </si>
+  <si>
+    <t>2Fe-2S</t>
+  </si>
+  <si>
+    <t>4Fe-4S</t>
+  </si>
+  <si>
+    <t>3Fe-4S</t>
+  </si>
+  <si>
+    <t>Ca(2+) [cytoplasm]</t>
+  </si>
+  <si>
+    <t>cadmium(2+) [cytoplasm]</t>
+  </si>
+  <si>
+    <t>chloride [cytoplasm]</t>
+  </si>
+  <si>
+    <t>coenzyme A [cytoplasm]</t>
+  </si>
+  <si>
+    <t>FAD [cytoplasm]</t>
+  </si>
+  <si>
+    <t>FMN [cytoplasm]</t>
+  </si>
+  <si>
+    <t>glutathione [cytoplasm]</t>
+  </si>
+  <si>
+    <t>potassium [cytoplasm]</t>
+  </si>
+  <si>
+    <t>Mg(2+) [cytoplasm]</t>
+  </si>
+  <si>
+    <t>Mn(2+) [cytoplasm]</t>
+  </si>
+  <si>
+    <t>sodium [cytoplasm]</t>
+  </si>
+  <si>
+    <t>pyridoxal 5'-phosphate [cytoplasm]</t>
+  </si>
+  <si>
+    <t>S-adenosyl-L-methionine [cytoplasm]</t>
+  </si>
+  <si>
+    <t>sulphate [cytoplasm]</t>
+  </si>
+  <si>
+    <t>TDP [cytoplasm]</t>
+  </si>
+  <si>
+    <t>Zn(2+) [cytoplasm]</t>
+  </si>
+  <si>
+    <t>Cu2(+) [cytoplasm]</t>
+  </si>
+  <si>
+    <t>iron(3+) [mitochondrion]</t>
+  </si>
+  <si>
+    <t>iron(2+) [mitochondrion]</t>
+  </si>
+  <si>
+    <t>heme a [mitochondrion]</t>
+  </si>
+  <si>
+    <t>ferroheme b [mitochondrion]</t>
+  </si>
+  <si>
+    <t>Cu(+) [cytoplasm]</t>
+  </si>
+  <si>
+    <t>heme c [mitochondrion]</t>
+  </si>
+  <si>
+    <t>Fe2S2 cluster [mitochondrion]</t>
+  </si>
+  <si>
+    <t>Fe4S4 cluster [mitochondrion]</t>
+  </si>
+  <si>
+    <t>Fe3S4 cluster [mitochondrion]</t>
   </si>
 </sst>
 </file>
@@ -672,31 +726,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59622002-9776-FB42-9A5C-399C9F1EBCF0}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -704,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -712,7 +766,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -720,13 +774,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -734,10 +788,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -745,13 +799,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -759,7 +813,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -767,253 +821,315 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>7</v>
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>8</v>
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>104</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>10</v>
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>100</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>101</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>14</v>
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>27</v>
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Data/cofactorList.xlsx
+++ b/Data/cofactorList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CE3D8E-B931-6A40-B194-D57A99B70DD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C231C3-8A1E-1848-A4A1-80023E5AEE6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5220" yWindow="460" windowWidth="26100" windowHeight="20540" xr2:uid="{6F10CA13-4694-F54D-8C31-B6BE16AEA87F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>BA</t>
   </si>
@@ -285,9 +285,6 @@
   </si>
   <si>
     <t>Ca(2+) [cytoplasm]</t>
-  </si>
-  <si>
-    <t>cadmium(2+) [cytoplasm]</t>
   </si>
   <si>
     <t>chloride [cytoplasm]</t>
@@ -729,7 +726,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -787,9 +784,6 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>84</v>
-      </c>
       <c r="C5" t="s">
         <v>28</v>
       </c>
@@ -799,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C6" t="s">
         <v>29</v>
@@ -821,7 +815,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -832,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -846,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C10" t="s">
         <v>32</v>
@@ -863,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" t="s">
         <v>33</v>
@@ -885,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
         <v>34</v>
@@ -907,7 +901,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -921,7 +915,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" t="s">
         <v>37</v>
@@ -935,7 +929,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
         <v>40</v>
@@ -957,7 +951,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
         <v>42</v>
@@ -971,7 +965,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
@@ -985,7 +979,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" t="s">
         <v>50</v>
@@ -999,7 +993,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C22" t="s">
         <v>44</v>
@@ -1013,7 +1007,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" t="s">
         <v>45</v>
@@ -1027,7 +1021,7 @@
         <v>68</v>
       </c>
       <c r="B24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C24" t="s">
         <v>46</v>
@@ -1038,7 +1032,7 @@
         <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C25" t="s">
         <v>47</v>
@@ -1049,7 +1043,7 @@
         <v>70</v>
       </c>
       <c r="B26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
         <v>48</v>
@@ -1060,7 +1054,7 @@
         <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C27" t="s">
         <v>49</v>
@@ -1071,7 +1065,7 @@
         <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
         <v>77</v>
@@ -1082,7 +1076,7 @@
         <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
         <v>78</v>
@@ -1093,7 +1087,7 @@
         <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C30" t="s">
         <v>79</v>
@@ -1104,7 +1098,7 @@
         <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C31" t="s">
         <v>80</v>
@@ -1115,7 +1109,7 @@
         <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C32" t="s">
         <v>81</v>
@@ -1126,7 +1120,7 @@
         <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C33" t="s">
         <v>82</v>

--- a/Data/cofactorList.xlsx
+++ b/Data/cofactorList.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0C231C3-8A1E-1848-A4A1-80023E5AEE6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6E5708-68CC-6040-9A6D-0A1A61E5B8ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5220" yWindow="460" windowWidth="26100" windowHeight="20540" xr2:uid="{6F10CA13-4694-F54D-8C31-B6BE16AEA87F}"/>
+    <workbookView xWindow="1620" yWindow="460" windowWidth="26100" windowHeight="17540" xr2:uid="{6F10CA13-4694-F54D-8C31-B6BE16AEA87F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="108">
   <si>
     <t>BA</t>
   </si>
@@ -726,7 +727,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -792,6 +793,389 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16CF2F-64D1-1240-9E11-8589A07EDE9E}">
+  <dimension ref="A1:E33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
       <c r="B6" t="s">
         <v>84</v>
       </c>

--- a/Data/cofactorList.xlsx
+++ b/Data/cofactorList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cheyu/Documents/GitHub/CofactorYeast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE6E5708-68CC-6040-9A6D-0A1A61E5B8ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CAE3DD6-CF6D-0945-BD57-D9F35C9EEFF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1620" yWindow="460" windowWidth="26100" windowHeight="17540" xr2:uid="{6F10CA13-4694-F54D-8C31-B6BE16AEA87F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="108">
   <si>
     <t>BA</t>
   </si>
@@ -364,7 +364,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -375,6 +375,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -406,10 +413,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -724,10 +733,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59622002-9776-FB42-9A5C-399C9F1EBCF0}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.83203125" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16CF2F-64D1-1240-9E11-8589A07EDE9E}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -793,389 +1081,6 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" t="s">
-        <v>103</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" t="s">
-        <v>99</v>
-      </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B29" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C31" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F16CF2F-64D1-1240-9E11-8589A07EDE9E}">
-  <dimension ref="A1:E33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
       <c r="B6" t="s">
         <v>84</v>
       </c>
